--- a/Booklet/Product Backlog Labmon.xlsx
+++ b/Booklet/Product Backlog Labmon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliaagosta/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\condr\Desktop\UNI\LAB\1850965_Labmon\Booklet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB436630-0A53-384E-BBDA-EA4995BCCA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7DDF72-AD4A-433B-94FC-FD5392BB27E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="118">
   <si>
     <t>Story Name</t>
   </si>
@@ -409,6 +409,48 @@
   </si>
   <si>
     <t>Fixed inconsistencies between frontend and backend in Monster and Item management.</t>
+  </si>
+  <si>
+    <t>First implementation of game microservice backend</t>
+  </si>
+  <si>
+    <t>Fixed issues with RabbitMQ connection and receiver functionality</t>
+  </si>
+  <si>
+    <t>First implementation of start encounter UI</t>
+  </si>
+  <si>
+    <t>Added timer functionality</t>
+  </si>
+  <si>
+    <t>Fixed encounter generation and catching logic</t>
+  </si>
+  <si>
+    <t>Implemention of  queues for item_api and monster_api</t>
+  </si>
+  <si>
+    <t>Implementation of queues for message exchange between auth_api and game_api microservices</t>
+  </si>
+  <si>
+    <t>0.1.2.0</t>
+  </si>
+  <si>
+    <t>0.1.2.1</t>
+  </si>
+  <si>
+    <t>0.1.2.2</t>
+  </si>
+  <si>
+    <t>0.1.2.3</t>
+  </si>
+  <si>
+    <t>0.1.2.4</t>
+  </si>
+  <si>
+    <t>0.1.2.5</t>
+  </si>
+  <si>
+    <t>0.1.2.6</t>
   </si>
 </sst>
 </file>
@@ -480,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -521,9 +563,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
@@ -767,7 +812,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1094,14 +1139,14 @@
       <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="56.5" customWidth="1"/>
+    <col min="2" max="2" width="56.44140625" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1123,7 +1168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1134,7 +1179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1145,7 +1190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -1156,7 +1201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -1167,7 +1212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1178,7 +1223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -1189,7 +1234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
@@ -1200,7 +1245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -1211,7 +1256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -1222,7 +1267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
@@ -1233,7 +1278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -1244,7 +1289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
@@ -1255,7 +1300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
@@ -1266,7 +1311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
@@ -1277,7 +1322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
@@ -1288,7 +1333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
@@ -1299,7 +1344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -1310,7 +1355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>50</v>
       </c>
@@ -1321,7 +1366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>51</v>
       </c>
@@ -1332,7 +1377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>52</v>
       </c>
@@ -1343,7 +1388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>53</v>
       </c>
@@ -1354,7 +1399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>54</v>
       </c>
@@ -1365,7 +1410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>55</v>
       </c>
@@ -1376,7 +1421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>67</v>
       </c>
@@ -1387,7 +1432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>68</v>
       </c>
@@ -1398,7 +1443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>69</v>
       </c>
@@ -1409,7 +1454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>74</v>
       </c>
@@ -1420,7 +1465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>75</v>
       </c>
@@ -1431,7 +1476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>76</v>
       </c>
@@ -1442,7 +1487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>77</v>
       </c>
@@ -1453,7 +1498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>81</v>
       </c>
@@ -1464,7 +1509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>82</v>
       </c>
@@ -1475,7 +1520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>83</v>
       </c>
@@ -1486,7 +1531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>87</v>
       </c>
@@ -1497,7 +1542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>88</v>
       </c>
@@ -1508,7 +1553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>89</v>
       </c>
@@ -1519,242 +1564,242 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1786,16 +1831,16 @@
       <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="3.5" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1808,7 +1853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1821,7 +1866,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1834,7 +1879,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1847,7 +1892,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -1855,42 +1900,42 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1915,19 +1960,19 @@
   </sheetPr>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="170" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="50.5" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
@@ -1938,7 +1983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -1949,7 +1994,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>100</v>
       </c>
@@ -1960,7 +2005,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
@@ -1971,7 +2016,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>101</v>
       </c>
@@ -1982,7 +2027,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>102</v>
       </c>
@@ -1993,127 +2038,169 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="15">
+        <v>45937</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="15">
+        <v>45938</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="15">
+        <v>45939</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="15">
+        <v>45939</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="15">
+        <v>45939</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="15">
+        <v>45940</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="15">
+        <v>45940</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>

--- a/Booklet/Product Backlog Labmon.xlsx
+++ b/Booklet/Product Backlog Labmon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\condr\Desktop\UNI\LAB\1850965_Labmon\Booklet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7DDF72-AD4A-433B-94FC-FD5392BB27E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CC915B-A3BF-433D-9915-E10FB511826C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,24 @@
   </sheets>
   <definedNames>
     <definedName name="DTnames">Setup!$E$2:$E$11</definedName>
-    <definedName name="PBInames">'Product Backlog'!$A$2:$A$86</definedName>
+    <definedName name="PBInames">'Product Backlog'!$A$2:$A$85</definedName>
     <definedName name="PBstatus">Setup!$A$2:$A$11</definedName>
     <definedName name="SBstatus">Setup!$C$2:$C$11</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -97,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="138">
   <si>
     <t>Story Name</t>
   </si>
@@ -357,18 +370,12 @@
     <t>As a Player, I want the game to track capture statistics, so that I feel motivated to improve</t>
   </si>
   <si>
-    <t>As a Player, I want to be notified if an Admin deletes my account, so that I know my data has been canceled</t>
-  </si>
-  <si>
     <t>Player Rewards</t>
   </si>
   <si>
     <t>Player Statistics</t>
   </si>
   <si>
-    <t>Player Notification</t>
-  </si>
-  <si>
     <t>Cecilia Agosta</t>
   </si>
   <si>
@@ -378,27 +385,15 @@
     <t>Valerio Liberati</t>
   </si>
   <si>
-    <t>09/17/2025</t>
-  </si>
-  <si>
     <t>Added Authentication frontend and backend for both Players and Admins.</t>
   </si>
   <si>
     <t>Fixed Token management and inconsistencies between frontend and backend in Authentication.</t>
   </si>
   <si>
-    <t>09/25/2025</t>
-  </si>
-  <si>
     <t>09/30/2025</t>
   </si>
   <si>
-    <t>Added backend for Monster and Item management.</t>
-  </si>
-  <si>
-    <t>Added frontend for Admin management of Monsters and Items.</t>
-  </si>
-  <si>
     <t>0.1.0.1</t>
   </si>
   <si>
@@ -408,9 +403,6 @@
     <t>0.1.1.2</t>
   </si>
   <si>
-    <t>Fixed inconsistencies between frontend and backend in Monster and Item management.</t>
-  </si>
-  <si>
     <t>First implementation of game microservice backend</t>
   </si>
   <si>
@@ -438,19 +430,100 @@
     <t>0.1.2.1</t>
   </si>
   <si>
-    <t>0.1.2.2</t>
-  </si>
-  <si>
     <t>0.1.2.3</t>
   </si>
   <si>
-    <t>0.1.2.4</t>
-  </si>
-  <si>
-    <t>0.1.2.5</t>
-  </si>
-  <si>
-    <t>0.1.2.6</t>
+    <t>Implemented game loop interface</t>
+  </si>
+  <si>
+    <t>Added frontend for Collection page</t>
+  </si>
+  <si>
+    <t>Extended the Game Microservice to Support Monster Collection and Sharding Functionality</t>
+  </si>
+  <si>
+    <t>Extended the Game Microservice for retrieving and purchasing items</t>
+  </si>
+  <si>
+    <t>Added frontend for Inventory page</t>
+  </si>
+  <si>
+    <t>Added frontend for Shop page</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Fixed issues for claim funcionalities</t>
+  </si>
+  <si>
+    <t>09/19/2025</t>
+  </si>
+  <si>
+    <t>09/23/2025</t>
+  </si>
+  <si>
+    <t>Added backend for Monster management.</t>
+  </si>
+  <si>
+    <t>Added frontend for Admin management of Monsters .</t>
+  </si>
+  <si>
+    <t>Fixed inconsistencies between frontend and backend in Monster  management.</t>
+  </si>
+  <si>
+    <t>Fixed inconsistencies between frontend and backend in Item  management.</t>
+  </si>
+  <si>
+    <t>Added frontend for Admin management of Items .</t>
+  </si>
+  <si>
+    <t>Added backend for Item management.</t>
+  </si>
+  <si>
+    <t>0.1.3.0</t>
+  </si>
+  <si>
+    <t>0.1.3.1</t>
+  </si>
+  <si>
+    <t>0.1.3.2</t>
+  </si>
+  <si>
+    <t>0.1.3.3</t>
+  </si>
+  <si>
+    <t>0.1.3.4</t>
+  </si>
+  <si>
+    <t>0.1.3.5</t>
+  </si>
+  <si>
+    <t>0.1.3.6</t>
+  </si>
+  <si>
+    <t>0.1.3.7</t>
+  </si>
+  <si>
+    <t>0.1.3.8</t>
+  </si>
+  <si>
+    <t>0.1.3.9</t>
+  </si>
+  <si>
+    <t>0.1.3.10</t>
+  </si>
+  <si>
+    <t>0.1.3.11</t>
+  </si>
+  <si>
+    <t>0.1.3.12</t>
+  </si>
+  <si>
+    <t>0.1.3.13</t>
+  </si>
+  <si>
+    <t>09/26/2025</t>
   </si>
 </sst>
 </file>
@@ -460,7 +533,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -495,6 +568,11 @@
       <name val="Roboto"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -522,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -565,6 +643,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,7 +847,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:C86" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:C85" headerRowDxfId="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Story Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Story Description"/>
@@ -801,11 +885,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="A1:C31">
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="A1:D34">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Version"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Date"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Changes"/>
+    <tableColumn id="4" xr3:uid="{268CD958-4BB8-41D7-A93C-D73F46B3FF83}" name="Sprint"/>
   </tableColumns>
   <tableStyleInfo name="Change Log-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1132,11 +1217,11 @@
     <tabColor rgb="FFB45F06"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="157" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="157" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1533,7 +1618,7 @@
     </row>
     <row r="36" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>84</v>
@@ -1544,7 +1629,7 @@
     </row>
     <row r="37" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>85</v>
@@ -1553,16 +1638,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>3</v>
-      </c>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
@@ -1659,7 +1738,7 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1799,14 +1878,9 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C2:C30 C39:C86" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C30 C38:C85" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>PBstatus</formula1>
     </dataValidation>
   </dataValidations>
@@ -1863,7 +1937,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1876,7 +1950,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1889,7 +1963,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1958,21 +2032,21 @@
     <tabColor rgb="FFB7B7B7"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" customWidth="1"/>
     <col min="3" max="3" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
@@ -1982,230 +2056,375 @@
       <c r="C1" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D1" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="B3" s="12" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="15">
+        <v>45933</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="15">
+        <v>45935</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="15">
+        <v>45937</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="18">
+        <v>45939</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="18">
+        <v>45940</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="18">
+        <v>45941</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="18">
+        <v>45941</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="18">
+        <v>45941</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="18">
+        <v>45942</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="18">
+        <v>45942</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="15">
-        <v>45935</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="15">
-        <v>45936</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="18">
+        <v>45944</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="4">
+        <v>45947</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="4">
+        <v>45950</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="4">
+        <v>45951</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="4">
+        <v>45955</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="4">
+        <v>45957</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="15">
-        <v>45937</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="D22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="4">
+        <v>45958</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="15">
-        <v>45938</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="15">
-        <v>45939</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="15">
-        <v>45939</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="15">
-        <v>45939</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="15">
-        <v>45940</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="15">
-        <v>45940</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
     </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="3"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Booklet/Product Backlog Labmon.xlsx
+++ b/Booklet/Product Backlog Labmon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\condr\Desktop\UNI\LAB\1850965_Labmon\Booklet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CC915B-A3BF-433D-9915-E10FB511826C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F518C637-260D-45B5-AA1B-D3C33C430288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="141">
   <si>
     <t>Story Name</t>
   </si>
@@ -385,9 +385,6 @@
     <t>Valerio Liberati</t>
   </si>
   <si>
-    <t>Added Authentication frontend and backend for both Players and Admins.</t>
-  </si>
-  <si>
     <t>Fixed Token management and inconsistencies between frontend and backend in Authentication.</t>
   </si>
   <si>
@@ -524,6 +521,18 @@
   </si>
   <si>
     <t>09/26/2025</t>
+  </si>
+  <si>
+    <t>0.1.0.2</t>
+  </si>
+  <si>
+    <t>09/20/2025</t>
+  </si>
+  <si>
+    <t>Added Authentication backend for both Players and Admins.</t>
+  </si>
+  <si>
+    <t>Added Authentication frontend for both Players and Admins.</t>
   </si>
 </sst>
 </file>
@@ -600,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -646,9 +655,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,7 +891,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="A1:D34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="A1:D35">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Version"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Date"/>
@@ -1219,7 +1225,7 @@
   </sheetPr>
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="157" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="157" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
@@ -2032,11 +2038,11 @@
     <tabColor rgb="FFB7B7B7"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2057,7 +2063,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -2065,10 +2071,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2076,80 +2082,80 @@
     </row>
     <row r="3" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="B5" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="B7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="15">
-        <v>45933</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B8" s="15">
-        <v>45935</v>
+        <v>45933</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>121</v>
@@ -2158,12 +2164,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" s="15">
-        <v>45937</v>
+        <v>45935</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>120</v>
@@ -2172,29 +2178,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="18">
-        <v>45939</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>97</v>
+        <v>105</v>
+      </c>
+      <c r="B10" s="15">
+        <v>45937</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="D10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="18">
-        <v>45940</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>103</v>
+        <v>122</v>
+      </c>
+      <c r="B11" s="15">
+        <v>45941</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -2202,27 +2208,27 @@
     </row>
     <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="18">
+        <v>123</v>
+      </c>
+      <c r="B12" s="15">
         <v>45941</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>98</v>
+      <c r="C12" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="D12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="18">
-        <v>45941</v>
+        <v>124</v>
+      </c>
+      <c r="B13" s="15">
+        <v>45942</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -2230,13 +2236,13 @@
     </row>
     <row r="14" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="18">
-        <v>45941</v>
+        <v>125</v>
+      </c>
+      <c r="B14" s="15">
+        <v>45942</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -2244,13 +2250,13 @@
     </row>
     <row r="15" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="18">
+        <v>126</v>
+      </c>
+      <c r="B15" s="15">
         <v>45942</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -2258,13 +2264,13 @@
     </row>
     <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="18">
-        <v>45942</v>
+        <v>127</v>
+      </c>
+      <c r="B16" s="15">
+        <v>45943</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -2272,38 +2278,38 @@
     </row>
     <row r="17" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="18">
-        <v>45944</v>
+        <v>128</v>
+      </c>
+      <c r="B17" s="15">
+        <v>45943</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="4">
+    <row r="18" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="15">
+        <v>45945</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="4">
         <v>45947</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="4">
-        <v>45950</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>108</v>
@@ -2314,41 +2320,41 @@
     </row>
     <row r="20" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B20" s="4">
-        <v>45951</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>114</v>
+        <v>45950</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="D20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B21" s="4">
+        <v>45951</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="4">
         <v>45955</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="4">
-        <v>45957</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>111</v>
+      <c r="C22" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -2356,22 +2362,31 @@
     </row>
     <row r="23" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B23" s="4">
-        <v>45958</v>
+        <v>45957</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D23">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3"/>
+    <row r="24" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="4">
+        <v>45958</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
@@ -2422,6 +2437,11 @@
       <c r="A34" s="2"/>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Booklet/Product Backlog Labmon.xlsx
+++ b/Booklet/Product Backlog Labmon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\condr\Desktop\UNI\LAB\1850965_Labmon\Booklet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliaagosta/Desktop/Università/Magistrale/1850965_Labmon/Booklet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F518C637-260D-45B5-AA1B-D3C33C430288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F630EEAD-1239-9245-98C7-98B20C927D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="148">
   <si>
     <t>Story Name</t>
   </si>
@@ -533,6 +533,27 @@
   </si>
   <si>
     <t>Added Authentication frontend for both Players and Admins.</t>
+  </si>
+  <si>
+    <t>0.1.3.14</t>
+  </si>
+  <si>
+    <t>10/30/2025</t>
+  </si>
+  <si>
+    <t>Extended the Game microservice for computing statistics</t>
+  </si>
+  <si>
+    <t>0.1.3.15</t>
+  </si>
+  <si>
+    <t>Implementation of usage of Items inside Encounters</t>
+  </si>
+  <si>
+    <t>0.1.3.16</t>
+  </si>
+  <si>
+    <t>Added frontend for Stats page</t>
   </si>
 </sst>
 </file>
@@ -551,6 +572,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -609,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -638,27 +660,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
@@ -903,7 +934,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1225,19 +1256,19 @@
   </sheetPr>
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="157" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="56.44140625" customWidth="1"/>
+    <col min="2" max="2" width="56.5" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +1279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1259,7 +1290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1270,7 +1301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1281,7 +1312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -1292,7 +1323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -1303,7 +1334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1314,7 +1345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -1325,7 +1356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
@@ -1336,7 +1367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -1347,7 +1378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -1358,7 +1389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
@@ -1369,7 +1400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -1380,7 +1411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
@@ -1391,7 +1422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
@@ -1402,7 +1433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
@@ -1413,7 +1444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
@@ -1424,7 +1455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
@@ -1435,7 +1466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -1446,7 +1477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>50</v>
       </c>
@@ -1457,7 +1488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>51</v>
       </c>
@@ -1468,7 +1499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>52</v>
       </c>
@@ -1479,7 +1510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>53</v>
       </c>
@@ -1490,7 +1521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>54</v>
       </c>
@@ -1501,7 +1532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>55</v>
       </c>
@@ -1512,7 +1543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>67</v>
       </c>
@@ -1523,7 +1554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>68</v>
       </c>
@@ -1534,7 +1565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>69</v>
       </c>
@@ -1545,7 +1576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>74</v>
       </c>
@@ -1556,7 +1587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>75</v>
       </c>
@@ -1567,7 +1598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>76</v>
       </c>
@@ -1578,7 +1609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>77</v>
       </c>
@@ -1589,7 +1620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>81</v>
       </c>
@@ -1600,7 +1631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>82</v>
       </c>
@@ -1611,7 +1642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>83</v>
       </c>
@@ -1622,7 +1653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>86</v>
       </c>
@@ -1633,7 +1664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>87</v>
       </c>
@@ -1644,242 +1675,242 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1911,16 +1942,16 @@
       <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1933,7 +1964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1946,7 +1977,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1959,7 +1990,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1972,7 +2003,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -1980,42 +2011,42 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2041,18 +2072,18 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="50.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
@@ -2062,383 +2093,410 @@
       <c r="C1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="D5" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="D6" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="D7" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>45933</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <v>45935</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+      <c r="A10" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>45937</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="13">
         <v>45941</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+      <c r="A12" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="13">
         <v>45941</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+      <c r="A13" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="13">
         <v>45942</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="13">
         <v>45942</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="13">
         <v>45942</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="13">
         <v>45943</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="13">
         <v>45943</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A18" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="13">
         <v>45945</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="13">
         <v>45947</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="13">
         <v>45950</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A21" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="13">
         <v>45951</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+      <c r="A22" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="13">
         <v>45955</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="20">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A23" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="13">
         <v>45957</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="20">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A24" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="13">
         <v>45958</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="20">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="4">
+        <v>45727</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="4">
+        <v>45788</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="4"/>
       <c r="C35" s="3"/>

--- a/Booklet/Product Backlog Labmon.xlsx
+++ b/Booklet/Product Backlog Labmon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliaagosta/Desktop/Università/Magistrale/1850965_Labmon/Booklet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\condr\Desktop\UNI\LAB\1850965_Labmon\Booklet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F630EEAD-1239-9245-98C7-98B20C927D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4220DD6D-F4DA-4CE2-9214-3306C56A1CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="149">
   <si>
     <t>Story Name</t>
   </si>
@@ -538,9 +538,6 @@
     <t>0.1.3.14</t>
   </si>
   <si>
-    <t>10/30/2025</t>
-  </si>
-  <si>
     <t>Extended the Game microservice for computing statistics</t>
   </si>
   <si>
@@ -554,6 +551,12 @@
   </si>
   <si>
     <t>Added frontend for Stats page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed issues </t>
+  </si>
+  <si>
+    <t>0.1.3.17</t>
   </si>
 </sst>
 </file>
@@ -689,7 +692,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
@@ -934,7 +937,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1261,14 +1264,14 @@
       <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="56.5" customWidth="1"/>
+    <col min="2" max="2" width="56.44140625" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1279,7 +1282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1290,7 +1293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1301,7 +1304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -1356,7 +1359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -1389,7 +1392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
@@ -1400,7 +1403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -1411,7 +1414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
@@ -1433,7 +1436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
@@ -1444,7 +1447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
@@ -1455,7 +1458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
@@ -1466,7 +1469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -1477,7 +1480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>50</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>51</v>
       </c>
@@ -1499,7 +1502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>52</v>
       </c>
@@ -1510,7 +1513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>53</v>
       </c>
@@ -1521,7 +1524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>54</v>
       </c>
@@ -1532,7 +1535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>55</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>67</v>
       </c>
@@ -1554,7 +1557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>68</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>69</v>
       </c>
@@ -1576,7 +1579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>74</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>75</v>
       </c>
@@ -1598,7 +1601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>76</v>
       </c>
@@ -1609,7 +1612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>77</v>
       </c>
@@ -1620,7 +1623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>81</v>
       </c>
@@ -1631,7 +1634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>82</v>
       </c>
@@ -1642,7 +1645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>83</v>
       </c>
@@ -1653,7 +1656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>86</v>
       </c>
@@ -1664,7 +1667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>87</v>
       </c>
@@ -1675,242 +1678,242 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1942,16 +1945,16 @@
       <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="3.5" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1977,7 +1980,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1990,7 +1993,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2003,7 +2006,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -2011,42 +2014,42 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2072,18 +2075,18 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="50.5" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
@@ -2097,7 +2100,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
@@ -2111,7 +2114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>93</v>
       </c>
@@ -2125,7 +2128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>137</v>
       </c>
@@ -2139,7 +2142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>15</v>
       </c>
@@ -2153,7 +2156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>94</v>
       </c>
@@ -2167,7 +2170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>95</v>
       </c>
@@ -2181,7 +2184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>103</v>
       </c>
@@ -2195,7 +2198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>104</v>
       </c>
@@ -2209,7 +2212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>105</v>
       </c>
@@ -2223,7 +2226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>122</v>
       </c>
@@ -2237,7 +2240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>123</v>
       </c>
@@ -2251,7 +2254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>124</v>
       </c>
@@ -2265,7 +2268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>125</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>126</v>
       </c>
@@ -2293,7 +2296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>127</v>
       </c>
@@ -2307,7 +2310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>128</v>
       </c>
@@ -2321,7 +2324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>129</v>
       </c>
@@ -2335,7 +2338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>130</v>
       </c>
@@ -2349,7 +2352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>131</v>
       </c>
@@ -2363,7 +2366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>132</v>
       </c>
@@ -2377,7 +2380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>133</v>
       </c>
@@ -2391,112 +2394,121 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B23" s="13">
+        <v>45955</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="13">
         <v>45957</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="D23" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" s="13">
-        <v>45958</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>111</v>
       </c>
       <c r="D24" s="20">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>143</v>
+      <c r="B25" s="13">
+        <v>45958</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="D25" s="20">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" s="4">
-        <v>45727</v>
-      </c>
-      <c r="C26" s="3" t="s">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="13">
+        <v>45699</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="B27" s="4">
         <v>45788</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="4">
+        <v>45788</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="D27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="4"/>
       <c r="C35" s="3"/>
